--- a/Информация о проходах/Михайлова Юлия Сергеевна.xlsx
+++ b/Информация о проходах/Михайлова Юлия Сергеевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 08:52:24</t>
+          <t>2024-05-13 08:59:51</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 17:58:40</t>
+          <t>2024-05-13 18:00:42</t>
         </is>
       </c>
     </row>
@@ -512,6 +512,1062 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-14 09:12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-14 18:32:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-15 08:50:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-15 12:54:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-15 13:52:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-15 17:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-16 09:02:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-16 13:17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-16 13:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-16 18:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-17 08:58:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-17 18:12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-20 08:49:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-20 17:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-20 17:57:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-21 09:02:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-21 18:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-22 08:55:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:58:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-05-23 08:56:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-05-23 17:56:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-05-24 09:01:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-05-24 13:08:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-05-24 13:40:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-05-24 17:58:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-05-29 08:57:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-05-29 17:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-05-30 08:54:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-05-30 17:58:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-05-31 09:05:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-05-31 17:56:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-06-03 08:52:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-06-03 17:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>2024-06-04 08:44:46</t>
         </is>

--- a/Информация о проходах/Михайлова Юлия Сергеевна.xlsx
+++ b/Информация о проходах/Михайлова Юлия Сергеевна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-13 08:59:51</t>
+          <t>2024-06-03 08:52:24</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-13 18:00:42</t>
+          <t>2024-06-03 17:58:40</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-14 09:12:57</t>
+          <t>2024-06-04 08:44:46</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-14 18:32:36</t>
+          <t>2024-06-04 18:01:00</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-15 08:50:35</t>
+          <t>2024-06-05 12:47:42</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-15 12:54:18</t>
+          <t>2024-06-05 18:05:01</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-15 13:52:37</t>
+          <t>2024-06-06 09:00:54</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-15 17:58:32</t>
+          <t>2024-06-06 18:18:20</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-16 09:02:15</t>
+          <t>2024-06-07 08:49:16</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-16 13:17:34</t>
+          <t>2024-06-07 18:00:07</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-16 13:58:51</t>
+          <t>2024-06-10 09:01:09</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-16 18:00:15</t>
+          <t>2024-06-10 17:57:31</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-17 08:58:31</t>
+          <t>2024-06-11 09:02:05</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-17 18:12:15</t>
+          <t>2024-06-11 17:00:41</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-20 08:49:52</t>
+          <t>2024-06-13 09:02:10</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-20 17:57:26</t>
+          <t>2024-06-13 18:00:47</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-20 17:57:27</t>
+          <t>2024-06-14 09:01:09</t>
         </is>
       </c>
     </row>
@@ -983,17 +983,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-21 09:02:01</t>
+          <t>2024-06-14 18:01:34</t>
         </is>
       </c>
     </row>
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-21 18:00:26</t>
+          <t>2024-06-16 08:52:09</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-22 08:55:48</t>
+          <t>2024-06-16 14:02:24</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-22 17:58:59</t>
+          <t>2024-06-17 08:49:19</t>
         </is>
       </c>
     </row>
@@ -1111,17 +1111,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-05-23 08:56:59</t>
+          <t>2024-06-17 17:57:26</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1143,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-05-23 17:56:54</t>
+          <t>2024-06-18 08:57:38</t>
         </is>
       </c>
     </row>
@@ -1175,17 +1175,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-05-24 09:01:02</t>
+          <t>2024-06-18 18:01:36</t>
         </is>
       </c>
     </row>
@@ -1207,17 +1207,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-05-24 13:08:27</t>
+          <t>2024-06-19 08:56:50</t>
         </is>
       </c>
     </row>
@@ -1239,17 +1239,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-05-24 13:40:53</t>
+          <t>2024-06-19 17:59:13</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1271,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-05-24 17:58:15</t>
+          <t>2024-06-20 08:56:07</t>
         </is>
       </c>
     </row>
@@ -1303,17 +1303,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-05-29 08:57:04</t>
+          <t>2024-06-20 17:58:41</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1335,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-05-29 17:58:12</t>
+          <t>2024-06-21 09:03:59</t>
         </is>
       </c>
     </row>
@@ -1367,17 +1367,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-05-30 08:54:13</t>
+          <t>2024-06-21 15:53:57</t>
         </is>
       </c>
     </row>
@@ -1399,17 +1399,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-05-30 17:58:45</t>
+          <t>2024-06-24 09:01:29</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-05-31 09:05:54</t>
+          <t>2024-06-24 17:59:04</t>
         </is>
       </c>
     </row>
@@ -1463,17 +1463,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-05-31 17:56:43</t>
+          <t>2024-06-25 08:57:21</t>
         </is>
       </c>
     </row>
@@ -1495,17 +1495,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-06-03 08:52:24</t>
+          <t>2024-06-25 17:57:53</t>
         </is>
       </c>
     </row>
@@ -1527,17 +1527,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-06-03 17:58:40</t>
+          <t>2024-06-26 09:00:00</t>
         </is>
       </c>
     </row>
@@ -1559,17 +1559,209 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>КПП производства</t>
+          <t>Турникеты № 1+2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>КПП производства</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-06-04 08:44:46</t>
+          <t>2024-06-26 17:58:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-06-27 09:02:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-06-27 16:57:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-07-01 07:34:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-07-01 17:58:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-07-02 08:49:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Михайлова Юлия Сергеевна</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Старший менеджер отдела РиЛЛС</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Отдел РиЛЛС</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-07-02 17:56:57</t>
         </is>
       </c>
     </row>
